--- a/mapping_schemes/south/MOZ_RES.xlsx
+++ b/mapping_schemes/south/MOZ_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/South/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0940C14-BD1E-C84B-92A1-9366109A95C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E06570-E239-404A-B609-FD0BE4B6A0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="460" windowWidth="14660" windowHeight="17160" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="14140" yWindow="460" windowWidth="14660" windowHeight="17160" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="88">
   <si>
     <t>MATO</t>
   </si>
@@ -830,8 +830,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="C1:C1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3289,6 +3289,16 @@
       <c r="B276" s="32"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3296,10 +3306,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3474,18 +3484,18 @@
         <v>77</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <v>0.5</v>
@@ -3499,7 +3509,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
         <v>0.5</v>
@@ -3507,7 +3517,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>52</v>
@@ -3516,12 +3526,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>52</v>
@@ -3535,13 +3545,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -3549,13 +3559,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3563,16 +3573,16 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3583,7 +3593,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2">
         <v>0.5</v>
@@ -3591,27 +3601,27 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -3619,13 +3629,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -3633,13 +3643,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2">
         <v>0.5</v>
@@ -3647,13 +3657,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2">
         <v>0.5</v>
@@ -3661,21 +3671,21 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>53</v>
@@ -3684,18 +3694,36 @@
         <v>0</v>
       </c>
       <c r="D27" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-    </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10"/>
@@ -3765,6 +3793,7 @@
     <row r="43" spans="1:3">
       <c r="A43" s="10"/>
       <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="10"/>
@@ -3774,7 +3803,6 @@
     <row r="45" spans="1:3">
       <c r="A45" s="10"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="10"/>
@@ -3890,19 +3918,17 @@
       <c r="A68" s="10"/>
       <c r="B68" s="5"/>
       <c r="C68" s="3"/>
-      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="10"/>
       <c r="B69" s="5"/>
       <c r="C69" s="3"/>
-      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="10"/>
       <c r="B70" s="5"/>
       <c r="C70" s="3"/>
-      <c r="G70" s="10"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="10"/>
@@ -3938,11 +3964,13 @@
       <c r="A76" s="10"/>
       <c r="B76" s="5"/>
       <c r="C76" s="3"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="10"/>
       <c r="B77" s="5"/>
       <c r="C77" s="3"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="10"/>
@@ -3985,14 +4013,14 @@
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="5"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5"/>
@@ -4002,12 +4030,12 @@
     <row r="89" spans="1:3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="3"/>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="5"/>
@@ -4017,6 +4045,7 @@
     <row r="92" spans="1:3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5"/>
@@ -4026,7 +4055,6 @@
     <row r="94" spans="1:3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5"/>
@@ -4077,6 +4105,16 @@
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4088,7 +4126,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
